--- a/LMADefs-Ose_India.xlsx
+++ b/LMADefs-Ose_India.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE04CB-82A4-4D5D-B963-7E7209EE5FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875A678-7DF4-481F-8DE5-FB8D6D91B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,9 +484,6 @@
     <t>BTN</t>
   </si>
   <si>
-    <t>ELC*</t>
-  </si>
-  <si>
     <t>p,c</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>CO2 Emissions</t>
+  </si>
+  <si>
+    <t>ELC*01</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1304,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1321,13 +1321,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q4" t="s">
         <v>50</v>
@@ -1338,13 +1338,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="s">
         <v>50</v>
@@ -1355,19 +1355,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1375,16 +1375,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1392,16 +1392,16 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
         <v>137</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>138</v>
       </c>
-      <c r="N8" t="s">
-        <v>139</v>
-      </c>
       <c r="Q8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/LMADefs-Ose_India.xlsx
+++ b/LMADefs-Ose_India.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875A678-7DF4-481F-8DE5-FB8D6D91B8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8DF477-B928-4B63-ACB5-CC232C056D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
     <sheet name="TS_Defs" sheetId="27" r:id="rId2"/>
-    <sheet name="varbl map" sheetId="64" r:id="rId3"/>
-    <sheet name="process map" sheetId="65" r:id="rId4"/>
-    <sheet name="commodity map" sheetId="67" r:id="rId5"/>
-    <sheet name="ATS" sheetId="63" r:id="rId6"/>
-    <sheet name="UnitConv" sheetId="59" r:id="rId7"/>
+    <sheet name="TS ratios" sheetId="68" r:id="rId3"/>
+    <sheet name="varbl map" sheetId="64" r:id="rId4"/>
+    <sheet name="process map" sheetId="65" r:id="rId5"/>
+    <sheet name="commodity map" sheetId="67" r:id="rId6"/>
+    <sheet name="ATS" sheetId="63" r:id="rId7"/>
+    <sheet name="UnitConv" sheetId="59" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TS_Defs!$A$2:$N$2</definedName>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="154">
   <si>
     <t>Unit</t>
   </si>
@@ -521,6 +522,48 @@
   </si>
   <si>
     <t>ELC*01</t>
+  </si>
+  <si>
+    <t>~TS_Ratios</t>
+  </si>
+  <si>
+    <t>var_num</t>
+  </si>
+  <si>
+    <t>var_den</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>include_null</t>
+  </si>
+  <si>
+    <t>include_dim</t>
+  </si>
+  <si>
+    <t>scalar</t>
+  </si>
+  <si>
+    <t>Capacity_factor</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Emission Intensity</t>
+  </si>
+  <si>
+    <t>mt/PJ</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1207,9 +1250,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1323,6 +1366,9 @@
       <c r="D4" t="s">
         <v>129</v>
       </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
@@ -1340,6 +1386,9 @@
       <c r="D5" t="s">
         <v>129</v>
       </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
@@ -1356,6 +1405,9 @@
       </c>
       <c r="D6" t="s">
         <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>132</v>
@@ -1412,6 +1464,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A417EBA-A3EF-4B7E-9A8B-6031DBC955E3}">
+  <dimension ref="C1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32957E82-8232-40A9-A839-CC5F79005B92}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
@@ -1448,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -1916,7 +2088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3245E1-8745-41DD-8AE6-2F4FA19D9F1C}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -2237,7 +2409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G3"/>
@@ -2287,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:M3"/>

--- a/LMADefs-Ose_India.xlsx
+++ b/LMADefs-Ose_India.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8DF477-B928-4B63-ACB5-CC232C056D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215817EF-852F-490F-8C3C-8F7ED9D8BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A417EBA-A3EF-4B7E-9A8B-6031DBC955E3}">
-  <dimension ref="C1:L5"/>
+  <dimension ref="C1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1480,16 +1480,15 @@
     <col min="8" max="8" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12">
+    <row r="1" spans="3:13">
       <c r="C1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="3:12">
+    <row r="2" spans="3:13">
       <c r="C2" t="s">
         <v>141</v>
       </c>
@@ -1515,13 +1514,13 @@
         <v>145</v>
       </c>
       <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12">
+    </row>
+    <row r="3" spans="3:13">
       <c r="C3" t="s">
         <v>128</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:13">
       <c r="C4" t="s">
         <v>138</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:13">
       <c r="C5" t="s">
         <v>128</v>
       </c>

--- a/LMADefs-Ose_India.xlsx
+++ b/LMADefs-Ose_India.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215817EF-852F-490F-8C3C-8F7ED9D8BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509FA15-16CE-41BC-8AA4-1FF855F66559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
   <si>
     <t>Unit</t>
   </si>
@@ -278,9 +278,6 @@
     <t>discard</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
     <t>PJ2gw</t>
   </si>
   <si>
@@ -564,6 +561,15 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Osemosys</t>
+  </si>
+  <si>
+    <t>g/kWh</t>
+  </si>
+  <si>
+    <t>pc</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1177,7 +1183,7 @@
         <v>Fixed</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1205,7 +1211,7 @@
         <v>V1G</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1233,7 +1239,7 @@
         <v>V2G</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1347,16 +1353,16 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1364,16 +1370,16 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
         <v>50</v>
@@ -1384,16 +1390,16 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" t="s">
         <v>50</v>
@@ -1404,22 +1410,22 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1427,16 +1433,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1444,16 +1450,16 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" t="s">
         <v>136</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>137</v>
       </c>
-      <c r="N8" t="s">
-        <v>138</v>
-      </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1474,7 @@
   <dimension ref="C1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1485,15 +1491,15 @@
   <sheetData>
     <row r="1" spans="3:13">
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="3:13">
       <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1505,36 +1511,36 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>145</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
         <v>147</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>148</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
@@ -1542,19 +1548,19 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
         <v>150</v>
       </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
@@ -1562,16 +1568,16 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
@@ -1636,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1650,16 +1656,16 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1671,7 +1677,7 @@
         <v>Mining</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1707,24 +1713,24 @@
         <v>Transmission</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Bck</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1736,115 +1742,115 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Ccg</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Ccs</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Coa</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Cog</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Csp</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Geo</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Het</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Hyd</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Ocg</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -1856,230 +1862,230 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Oth</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Pet</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="str">
         <f>D21</f>
         <v>Spv</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Trn</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Urn</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Was</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Wav</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Wof</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Won</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="str">
         <f>"*"&amp;$J28&amp;",*"&amp;$J28&amp;"??,*"&amp;$J28&amp;"??0?"</f>
         <v>*INT,*INT??,*INT??0?</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" t="str">
         <f>"*"&amp;$J29&amp;",*"&amp;$J29&amp;"??,*"&amp;$J29&amp;"??0?"</f>
         <v>*IND,*IND??,*IND??0?</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="str">
         <f>"*"&amp;$J30&amp;",*"&amp;$J30&amp;"??,*"&amp;$J30&amp;"??0?"</f>
         <v>*BTN,*BTN??,*BTN??0?</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="str">
         <f>"*"&amp;J31&amp;",*"&amp;J31&amp;"??"</f>
         <v>*EA,*EA??</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ref="B32:B35" si="1">"*"&amp;J32&amp;",*"&amp;J32&amp;"??"</f>
         <v>*NE,*NE??</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
         <v>*NO,*NO??</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
         <v>*SO,*SO??</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>*WE,*WE??</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2123,24 +2129,24 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="str">
         <f>D3</f>
@@ -2152,79 +2158,79 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C24" si="0">D4</f>
         <v>Cal</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Coa</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Cog</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Csp</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Elc - HV</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Elc - LV</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="str">
@@ -2244,24 +2250,24 @@
         <v>Geo</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Hyd</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2273,134 +2279,134 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Oth</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Pet</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Spv</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>T01</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>T02</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>T03</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Urn</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Was</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Wav</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Wof</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Won</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2461,15 +2467,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
@@ -2499,10 +2507,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2515,10 +2523,54 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
-        <v>62</v>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <f>100/31.536</f>
+        <v>3.1709791983764584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5">
+        <f>3.6*1000</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
